--- a/outputs/FIJI5.xlsx
+++ b/outputs/FIJI5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations
-Why: The syllabus is a crucial document that outlines the course structure, requirements, and expectations. Given Abi's motivation to complete their tasks efficiently and with a clear understanding, finding the syllabus would be a logical step toward planning their term effectively. The syllabus will provide comprehensive information necessary for planning, aligning with Abi's motivation to accomplish their tasks in a structured manner. The page explicitly instructs the student to click on the "Syllabus" link to begin, directly connecting it to the course completion process.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely consider finding the syllabus as an essential step toward planning their term and understanding what needs to be done to complete the course.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly directs students to click on the "Syllabus" link in the left pane and emphasizes the importance of reading the syllabus carefully. This aligns with Abi's motivation to complete tasks efficiently and with a full understanding of the requirements. Additionally, the direct instructions cater to Abi's comprehensive information processing style, making it clear what action needs to be taken. The presence of the "Syllabus" link in a prominent location on the left-hand menu further supports this.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly indicates that the syllabus is an important document to read and provides a direct link to it in the left pane. The instructions in the main content area also explicitly mention clicking on "Syllabus" in the left pane. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the necessary information and steps are clearly laid out.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Once Abi clicks on the "Syllabus" link, they will land on a page titled "Course Syllabus," which clearly indicates they are in the right place. The page contains detailed information, including the weekly schedule and what is due for each class, aligning with Abi's need for comprehensive information. This will help Abi feel confident that they are making progress toward their goal of planning their term and understanding the course requirements thoroughly. The layout is straightforward, providing all necessary information without overwhelming Abi, which aligns with their information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information about the weekly schedule, assignments, and other important course details. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page offers a thorough overview of what needs to be done to complete the course.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Planning the term effectively requires knowing all the activities and their deadlines. Given Abi's motivation to accomplish tasks efficiently and their comprehensive information processing style, understanding the summary of activities and deadlines is crucial. The weekly schedule and deadlines provide a clear roadmap for the course, allowing Abi to plan their term effectively. This step is directly aligned with achieving the overall goal of understanding what needs to be done to complete the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule and due dates, directly supports this subgoal.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Course Syllabus" page clearly includes a section titled "Course Summary" and a detailed "Syllabus – Weekly schedule," which outlines the activities and deadlines. This aligns with Abi's motivation to complete tasks efficiently and understand the course requirements comprehensively. The layout and headings make it clear that scrolling down to read the course summary is the next logical step to gather the necessary information. The information is presented in a structured and detailed manner, catering to Abi's comprehensive information processing style.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page is well-organized and clearly labeled, with a "Course Summary" section that is easy to locate. Abi's comprehensive information processing style and preference for process-oriented learning will guide them to scroll down and read through the "Course Summary" to find the summary of activities and deadlines. The layout and labeling of the page support this action, making it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: While the page does provide a "Course Summary" section and a detailed "Syllabus – Weekly schedule," the information is somewhat fragmented and may be overwhelming for Abi. The summary of activities and deadlines is presented in a table format, which might be comprehensive but also dense. Abi might have difficulty processing this much information if it's not clearly organized or if it appears too complex. Additionally, if Abi has low confidence in their ability to navigate and interpret the information, they might feel uncertain about whether they have gathered all the necessary details to plan their term effectively.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines. This clear and organized presentation of information will confirm to Abi that they are making progress toward their goal of understanding what needs to be done to complete the course. The comprehensive list of readings, projects, and due dates aligns with Abi's motivation to accomplish tasks and their preference for a thorough understanding of the course requirements.</t>
         </is>
       </c>
     </row>
@@ -479,17 +479,17 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations
-Why: Setting up the necessary tools is an essential step in completing the course successfully. Abi is motivated to accomplish tasks efficiently and understands the importance of being prepared. Knowing which tools to install and set up will help Abi feel ready to tackle the course's assignments and projects. Therefore, finding the list of tools to be installed is a logical step toward achieving the overall goal of completing the course and planning the term effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and ensuring they can complete assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of tools to be installed/setup as an essential step toward achieving the overall use case. The "Tools" link on the syllabus page suggests that this information is readily accessible.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: Although the "Tools" tab is present at the top of the page, there is no clear instruction or indication on the page that clicking this tab will provide the list of tools to be installed or set up for the course. Abi, with lower confidence in unfamiliar computing tasks and a preference for process-oriented learning, may feel uncertain about clicking on the "Tools" tab without explicit information or guidance. The lack of a direct prompt or explanation about what the "Tools" tab contains might deter Abi from taking this action due to the risk of it not being the right step and wasting time.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Tools" tab is clearly labeled and positioned at the top of the page, making it easy to identify. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they will likely recognize that clicking on the "Tools" tab is the next logical step to find the list of tools to be installed/setup for the course. The page layout and labeling support this action, making it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page outlines each tool and provides links and instructions for installation and setup. This clear and comprehensive presentation aligns with Abi’s motivations to accomplish tasks efficiently and their preference for a detailed understanding of what is required. Abi will know they have done the right thing and are making progress toward their goal, as the page provides all the necessary information to set up the tools for the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page is well-organized and lists the tools along with instructions and links for setup. This clear and comprehensive presentation of information will confirm to Abi that they are making progress toward their goal of understanding what needs to be done to complete the course. The detailed instructions align with Abi's motivation to accomplish tasks and their preference for a thorough understanding of the course requirements.</t>
         </is>
       </c>
     </row>

--- a/outputs/FIJI5.xlsx
+++ b/outputs/FIJI5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the syllabus as an essential step toward planning her term and understanding what needs to be done to complete the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The syllabus is a crucial document for understanding the course structure, requirements, and schedule, which aligns with Abi's motivation to plan their term effectively. Additionally, the page explicitly mentions the importance of reading the syllabus and provides a clear link to it, which supports Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page clearly indicates that the syllabus is an important document and provides explicit instructions to click on "Syllabus" in the left pane. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning. The clear instructions and visible link make it straightforward for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to read through the syllabus, which is essential for planning the term. This aligns with Abi's motivation to understand what needs to be done to complete the course. Additionally, the explicit mention and clear link to the syllabus support Abi's comprehensive information processing style, making it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and assignments. This aligns with Abi's comprehensive information processing style, as the page provides a clear and structured overview of what is due each week. The presence of detailed information and the clear labeling of the page will help Abi know that she is making progress toward her goal of planning her term.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon landing on the Syllabus page, Abi will see a detailed weekly schedule and links to important documents such as the syllabus PDF and schedule of assignments and quizzes. This provides comprehensive information that aligns with Abi's motivation to plan their term and understand what needs to be done to complete the course. The clear presentation of the weekly schedule and additional resources supports Abi's comprehensive information processing style, ensuring that Abi knows they are making progress toward their goal and has the necessary information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: To plan her term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing her time. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider finding the summary of activities and deadlines as an essential step toward achieving her overall goal of completing the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: To plan their term effectively, Abi needs to understand the activities and deadlines for the course. The summary of activities and deadlines is essential for this planning process, aligning with Abi's motivation to complete the course successfully. Additionally, Abi's comprehensive information processing style means they would naturally seek out detailed information like a summary of activities and deadlines to form a complete understanding of the course requirements.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page is well-organized and clearly labeled with a "Course Summary" section that includes a detailed weekly schedule. Abi's comprehensive information processing style and preference for structured, process-oriented learning will guide her to scroll down and read through the "Course Summary" to find the summary of activities and deadlines. The layout and labeling make it clear what she needs to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly labels the "Course Summary" section and provides a detailed weekly schedule of activities and deadlines. This aligns with Abi's motivation to plan their term and understand what needs to be done to complete the course. Additionally, the clear layout and comprehensive information support Abi's information processing style, making it straightforward for Abi to know what to do at this step and ensuring the page is good enough for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines. This clear and structured presentation of information aligns with Abi's comprehensive information processing style and her motivation to plan her term effectively. The detailed schedule provides all the necessary information, so Abi will know she is making progress toward her goal and has the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" section and reading through it, Abi will see a detailed weekly schedule of activities and deadlines. This aligns with Abi's motivation to plan their term and understand what needs to be done to complete the course. The clear presentation of the weekly schedule and comprehensive information ensures that Abi knows they are making progress toward their goal and has all the necessary information to plan their term effectively.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: To complete the course successfully, Abi needs to ensure she has all the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and aligns with her motivation to accomplish tasks and her comprehensive information processing style. Knowing what tools are required is essential for planning her term effectively, so Abi would consider finding this information as a step toward achieving her overall goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: To complete the course successfully, Abi needs to know what tools are required and how to set them up. This is a crucial step in planning their term, as having the right tools is essential for completing assignments and projects. Abi's motivation to plan their term and understand all course requirements would naturally lead them to seek out this information. Additionally, Abi's comprehensive information processing style means they would consider finding a list of tools and setup instructions as an important part of forming a complete understanding of the course requirements.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and click on it. Given Abi's comprehensive information processing style and preference for structured, process-oriented learning, she will likely recognize that clicking on the "Tools" tab is the next logical step to find the list of tools needed for the course. The page layout and labeling provide clear guidance for this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a potential source of information about the tools needed for the course. This aligns with Abi's motivation to find out what tools need to be installed or set up to complete the course. Additionally, the clear labeling and placement of the tab support Abi's comprehensive information processing style, making it straightforward for Abi to know what to do at this step and ensuring the page is good enough for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page is well-organized and lists the tools along with descriptions and links for further information. This aligns with Abi's comprehensive information processing style and her motivation to gather all necessary information to plan her term effectively. The detailed and structured presentation of the tools will help Abi know that she is making progress toward her goal and has the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Tools" tab, Abi will land on a page that provides detailed information about the various tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. This aligns with Abi's motivation to find out what tools need to be installed or set up to complete the course. The comprehensive list and detailed instructions support Abi's information processing style, ensuring that Abi knows they did the right thing and is making progress toward their goal. The page provides all the necessary information Abi needs to plan their term effectively.</t>
         </is>
       </c>
     </row>
